--- a/Data/외부 데이터 통합.xlsx
+++ b/Data/외부 데이터 통합.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivid\Desktop\DAT\부동산_프로젝트\데이터통합\데이터original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAA54021-AB00-4604-A08F-09751D248980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA6A29B-A40C-4631-97F7-700579CA5AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8392F338-5529-4FE1-93E2-4644333842ED}"/>
   </bookViews>
@@ -2456,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42706F11-1926-4222-B458-EF8448A7AF29}">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2550,40 +2550,40 @@
         <v>202112</v>
       </c>
       <c r="Z1" s="9">
-        <v>202101</v>
+        <v>202201</v>
       </c>
       <c r="AA1" s="9">
-        <v>202102</v>
+        <v>202202</v>
       </c>
       <c r="AB1" s="9">
-        <v>202103</v>
+        <v>202203</v>
       </c>
       <c r="AC1" s="9">
-        <v>202104</v>
+        <v>202204</v>
       </c>
       <c r="AD1" s="9">
-        <v>202105</v>
+        <v>202205</v>
       </c>
       <c r="AE1" s="9">
-        <v>202106</v>
+        <v>202206</v>
       </c>
       <c r="AF1" s="9">
-        <v>202107</v>
+        <v>202207</v>
       </c>
       <c r="AG1" s="9">
-        <v>202108</v>
+        <v>202208</v>
       </c>
       <c r="AH1" s="9">
-        <v>202109</v>
+        <v>202209</v>
       </c>
       <c r="AI1" s="9">
-        <v>202110</v>
+        <v>202210</v>
       </c>
       <c r="AJ1" s="9">
-        <v>202111</v>
+        <v>202211</v>
       </c>
       <c r="AK1" s="9">
-        <v>202112</v>
+        <v>202212</v>
       </c>
     </row>
     <row r="2" spans="1:38">
